--- a/data/scheduling_DNN/predict/0.9/result11.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result11.xlsx
@@ -570,10 +570,10 @@
         <v>0.9172019958496094</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.8776362538337708</v>
       </c>
       <c r="W2" t="n">
-        <v>0.24965700507164</v>
+        <v>0.001565447892062366</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9670209884643555</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.8676082491874695</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3018060028553009</v>
+        <v>0.009882892481982708</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8966019153594971</v>
       </c>
       <c r="V4" t="n">
-        <v>0.800457239151001</v>
+        <v>0.8739621043205261</v>
       </c>
       <c r="W4" t="n">
-        <v>0.009243798442184925</v>
+        <v>0.0005125610623508692</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8711698055267334</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.4000498354434967</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1681495159864426</v>
+        <v>0.2219540327787399</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.9296860694885254</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.4025531113147736</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01611972972750664</v>
+        <v>0.2778691947460175</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8801348209381104</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.3991352915763855</v>
       </c>
       <c r="W7" t="n">
-        <v>0.08874733746051788</v>
+        <v>0.2313605546951294</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8663709163665771</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.5100831985473633</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2378527224063873</v>
+        <v>0.1269409358501434</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8708961009979248</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.39933180809021</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2705505192279816</v>
+        <v>0.2223728895187378</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.9301478862762451</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.8670803904533386</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01636634021997452</v>
+        <v>0.003977509215474129</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8730678558349609</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.4022499918937683</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2074812352657318</v>
+        <v>0.221669465303421</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.868628978729248</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.5261124968528748</v>
       </c>
       <c r="W12" t="n">
-        <v>0.004403301049023867</v>
+        <v>0.1173175424337387</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8967218399047852</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.8736591935157776</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1549644023180008</v>
+        <v>0.0005318856565281749</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.922321081161499</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.4003444015979767</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2547089755535126</v>
+        <v>0.2724596858024597</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9125919342041016</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.3991751372814178</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2735618054866791</v>
+        <v>0.263596773147583</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8625750541687012</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.4000521302223206</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0435873419046402</v>
+        <v>0.2139274477958679</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8775389194488525</v>
       </c>
       <c r="V17" t="n">
-        <v>0.802345335483551</v>
+        <v>0.5204614996910095</v>
       </c>
       <c r="W17" t="n">
-        <v>0.005654075182974339</v>
+        <v>0.127504289150238</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8997399806976318</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.8658125996589661</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1047941222786903</v>
+        <v>0.001151067204773426</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8566570281982422</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.520854115486145</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1233482137322426</v>
+        <v>0.1127635985612869</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8679940700531006</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.4004097282886505</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2675416469573975</v>
+        <v>0.2186351120471954</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8837270736694336</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.5218270421028137</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2619779109954834</v>
+        <v>0.1309716254472733</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5455570220947266</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.399902880191803</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01163520012050867</v>
+        <v>0.02121512964367867</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5368430614471436</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.5207968950271606</v>
       </c>
       <c r="W23" t="n">
-        <v>0.002155124209821224</v>
+        <v>0.0002574794634710997</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5217809677124023</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.8871055841445923</v>
       </c>
       <c r="W24" t="n">
-        <v>7.730169272690546e-06</v>
+        <v>0.1334620714187622</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5438570976257324</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.4010061621665955</v>
       </c>
       <c r="W25" t="n">
-        <v>0.006780896801501513</v>
+        <v>0.02040638960897923</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.541485071182251</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.8708888292312622</v>
       </c>
       <c r="W26" t="n">
-        <v>0.001353443716652691</v>
+        <v>0.1085068359971046</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.555682897567749</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.5264127254486084</v>
       </c>
       <c r="W27" t="n">
-        <v>0.007478392217308283</v>
+        <v>0.000856742961332202</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5507102012634277</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.8638697266578674</v>
       </c>
       <c r="W28" t="n">
-        <v>0.06414730846881866</v>
+        <v>0.09806888550519943</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.543881893157959</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.3997612595558167</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02740146219730377</v>
+        <v>0.02077075652778149</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5265669822692871</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.8857852816581726</v>
       </c>
       <c r="W30" t="n">
-        <v>0.003930382430553436</v>
+        <v>0.1290377825498581</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5199630260467529</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.4003572165966034</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01047105714678764</v>
+        <v>0.0143055496737361</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5835750102996826</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.3997632563114166</v>
       </c>
       <c r="W32" t="n">
-        <v>0.003453625831753016</v>
+        <v>0.03378676250576973</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5159618854522705</v>
       </c>
       <c r="V33" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.3992446660995483</v>
       </c>
       <c r="W33" t="n">
-        <v>0.08338568359613419</v>
+        <v>0.01362290885299444</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5212440490722656</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.524954617023468</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01073173061013222</v>
+        <v>1.376831460220274e-05</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5210208892822266</v>
       </c>
       <c r="V35" t="n">
-        <v>0.708076536655426</v>
+        <v>0.5235968828201294</v>
       </c>
       <c r="W35" t="n">
-        <v>0.03498981520533562</v>
+        <v>6.63574292047997e-06</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5151221752166748</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.8781304955482483</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0001020619238261133</v>
+        <v>0.1317750364542007</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5562248229980469</v>
       </c>
       <c r="V37" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.3991844058036804</v>
       </c>
       <c r="W37" t="n">
-        <v>0.009713081642985344</v>
+        <v>0.02466169185936451</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5145518779754639</v>
       </c>
       <c r="V38" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.869566023349762</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02647068724036217</v>
+        <v>0.1260350495576859</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.515545129776001</v>
       </c>
       <c r="V39" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.5207671523094177</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01898732222616673</v>
+        <v>2.726951970544178e-05</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5203421115875244</v>
       </c>
       <c r="V40" t="n">
-        <v>0.97564297914505</v>
+        <v>0.3991719186306</v>
       </c>
       <c r="W40" t="n">
-        <v>0.2072988748550415</v>
+        <v>0.01468221563845873</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5369269847869873</v>
       </c>
       <c r="V41" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.5311089158058167</v>
       </c>
       <c r="W41" t="n">
-        <v>0.07027769833803177</v>
+        <v>3.384992669452913e-05</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4078710079193115</v>
       </c>
       <c r="V42" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.8707996606826782</v>
       </c>
       <c r="W42" t="n">
-        <v>0.003262894693762064</v>
+        <v>0.2143029421567917</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4338419437408447</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.8662207722663879</v>
       </c>
       <c r="W43" t="n">
-        <v>0.0008785536629147828</v>
+        <v>0.1869514584541321</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3882369995117188</v>
       </c>
       <c r="V44" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.4003764390945435</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0707661360502243</v>
+        <v>0.0001473659940529615</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3885829448699951</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.5253995656967163</v>
       </c>
       <c r="W45" t="n">
-        <v>0.005611291620880365</v>
+        <v>0.0187187884002924</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.384213924407959</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.5230831503868103</v>
       </c>
       <c r="W46" t="n">
-        <v>0.01986880786716938</v>
+        <v>0.01928466185927391</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4122128486633301</v>
       </c>
       <c r="V47" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.516368567943573</v>
       </c>
       <c r="W47" t="n">
-        <v>0.3179453611373901</v>
+        <v>0.01084841415286064</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4014410972595215</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.4010057151317596</v>
       </c>
       <c r="W48" t="n">
-        <v>0.01521452236920595</v>
+        <v>1.895575962862495e-07</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.4392139911651611</v>
       </c>
       <c r="V49" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.5082365870475769</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0676153376698494</v>
+        <v>0.004764118697494268</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3875768184661865</v>
       </c>
       <c r="V50" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.5227971076965332</v>
       </c>
       <c r="W50" t="n">
-        <v>0.3463095426559448</v>
+        <v>0.01828452572226524</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.38661789894104</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.3992536962032318</v>
       </c>
       <c r="W51" t="n">
-        <v>0.0009636119357310236</v>
+        <v>0.0001596633665030822</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3894579410552979</v>
       </c>
       <c r="V52" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.8621398210525513</v>
       </c>
       <c r="W52" t="n">
-        <v>0.08810415863990784</v>
+        <v>0.2234281599521637</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3949971199035645</v>
       </c>
       <c r="V53" t="n">
-        <v>0.503772497177124</v>
+        <v>0.3991478085517883</v>
       </c>
       <c r="W53" t="n">
-        <v>0.01183208264410496</v>
+        <v>1.722821616567671e-05</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3877639770507812</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.5236583948135376</v>
       </c>
       <c r="W54" t="n">
-        <v>0.070785291492939</v>
+        <v>0.01846729218959808</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3896808624267578</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.399959534406662</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01023757643997669</v>
+        <v>0.0001056510955095291</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3895370960235596</v>
       </c>
       <c r="V56" t="n">
-        <v>0.801636278629303</v>
+        <v>0.5225833654403687</v>
       </c>
       <c r="W56" t="n">
-        <v>0.1698257327079773</v>
+        <v>0.01770130917429924</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3878960609436035</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.8878493309020996</v>
       </c>
       <c r="W57" t="n">
-        <v>0.005713737569749355</v>
+        <v>0.2499532699584961</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3894259929656982</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.5229941606521606</v>
       </c>
       <c r="W58" t="n">
-        <v>0.01871316134929657</v>
+        <v>0.01784045621752739</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3889451026916504</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.876943826675415</v>
       </c>
       <c r="W59" t="n">
-        <v>0.005256378091871738</v>
+        <v>0.2381427586078644</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3879158496856689</v>
       </c>
       <c r="V60" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.5278463363647461</v>
       </c>
       <c r="W60" t="n">
-        <v>0.1024816110730171</v>
+        <v>0.0195805411785841</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3881330490112305</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.4000634849071503</v>
       </c>
       <c r="W61" t="n">
-        <v>0.01891560666263103</v>
+        <v>0.0001423352950951084</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8963310718536377</v>
       </c>
       <c r="V62" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.8780248761177063</v>
       </c>
       <c r="W62" t="n">
-        <v>0.003011620603501797</v>
+        <v>0.0003351168124936521</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8628640174865723</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.8609786629676819</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1613902300596237</v>
+        <v>3.554561772034504e-06</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8619980812072754</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.8714855313301086</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1138503551483154</v>
+        <v>9.001170838018879e-05</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8643479347229004</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.4021777212619781</v>
       </c>
       <c r="W65" t="n">
-        <v>0.0726977065205574</v>
+        <v>0.2136013060808182</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8725078105926514</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.4010226130485535</v>
       </c>
       <c r="W66" t="n">
-        <v>0.0840456411242485</v>
+        <v>0.2222982943058014</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8651320934295654</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.8871797919273376</v>
       </c>
       <c r="W67" t="n">
-        <v>0.162896528840065</v>
+        <v>0.0004861009947489947</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9064290523529053</v>
       </c>
       <c r="V68" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.5210071802139282</v>
       </c>
       <c r="W68" t="n">
-        <v>0.2390126734972</v>
+        <v>0.1485500186681747</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8659729957580566</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.5190863013267517</v>
       </c>
       <c r="W69" t="n">
-        <v>0.130230724811554</v>
+        <v>0.1203303784132004</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8771021366119385</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.5217334032058716</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1132314801216125</v>
+        <v>0.1262869387865067</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8640658855438232</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.5260132551193237</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1601660847663879</v>
+        <v>0.1142795830965042</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8710370063781738</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.8740534782409668</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1349017769098282</v>
+        <v>9.099102499021683e-06</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.9247910976409912</v>
       </c>
       <c r="V73" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.399183064699173</v>
       </c>
       <c r="W73" t="n">
-        <v>0.008224052377045155</v>
+        <v>0.2762638330459595</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.865077018737793</v>
       </c>
       <c r="V74" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.8829678297042847</v>
       </c>
       <c r="W74" t="n">
-        <v>0.003651942126452923</v>
+        <v>0.000320081104291603</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8781068325042725</v>
       </c>
       <c r="V75" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.8662180304527283</v>
       </c>
       <c r="W75" t="n">
-        <v>0.05050122365355492</v>
+        <v>0.0001413436111761257</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8638088703155518</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.5267533659934998</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1391922533512115</v>
+        <v>0.1136064156889915</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.9310469627380371</v>
       </c>
       <c r="V77" t="n">
-        <v>0.655465304851532</v>
+        <v>0.4003603160381317</v>
       </c>
       <c r="W77" t="n">
-        <v>0.07594525068998337</v>
+        <v>0.281628280878067</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8662998676300049</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.4006957709789276</v>
       </c>
       <c r="W78" t="n">
-        <v>0.07796157151460648</v>
+        <v>0.2167871743440628</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.865947961807251</v>
       </c>
       <c r="V79" t="n">
-        <v>0.505433976650238</v>
+        <v>0.4003475904464722</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1299703270196915</v>
+        <v>0.2167837023735046</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8550329208374023</v>
       </c>
       <c r="V80" t="n">
-        <v>0.590633749961853</v>
+        <v>0.8767536878585815</v>
       </c>
       <c r="W80" t="n">
-        <v>0.06990692019462585</v>
+        <v>0.0004717917181551456</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.9359469413757324</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.8730918765068054</v>
       </c>
       <c r="W81" t="n">
-        <v>0.184996023774147</v>
+        <v>0.003950759302824736</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5459790229797363</v>
       </c>
       <c r="V82" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.5268464088439941</v>
       </c>
       <c r="W82" t="n">
-        <v>0.03026480786502361</v>
+        <v>0.000366056920029223</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5203888416290283</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.8775013089179993</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01773364841938019</v>
+        <v>0.1275293081998825</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5505440235137939</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.3997804820537567</v>
       </c>
       <c r="W84" t="n">
-        <v>0.017667131498456</v>
+        <v>0.02272964455187321</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5167930126190186</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.8671753406524658</v>
       </c>
       <c r="W85" t="n">
-        <v>6.403269071597606e-05</v>
+        <v>0.1227677762508392</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5139851570129395</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.8665909171104431</v>
       </c>
       <c r="W86" t="n">
-        <v>0.005344642791897058</v>
+        <v>0.1243308186531067</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5152361392974854</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.5218488574028015</v>
       </c>
       <c r="W87" t="n">
-        <v>0.0001161423715529963</v>
+        <v>4.372803959995508e-05</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5140688419342041</v>
       </c>
       <c r="V88" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.8697779178619385</v>
       </c>
       <c r="W88" t="n">
-        <v>0.09959164261817932</v>
+        <v>0.1265289485454559</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5173609256744385</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.8633396625518799</v>
       </c>
       <c r="W89" t="n">
-        <v>0.003124687587842345</v>
+        <v>0.1197012886404991</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5480928421020508</v>
       </c>
       <c r="V90" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.4001749455928802</v>
       </c>
       <c r="W90" t="n">
-        <v>0.02537479065358639</v>
+        <v>0.02187970466911793</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5191030502319336</v>
       </c>
       <c r="V91" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.8983294367790222</v>
       </c>
       <c r="W91" t="n">
-        <v>0.07893893867731094</v>
+        <v>0.1438126564025879</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5701980590820312</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.8703938126564026</v>
       </c>
       <c r="W92" t="n">
-        <v>0.01189705915749073</v>
+        <v>0.09011749178171158</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5171358585357666</v>
       </c>
       <c r="V93" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.4003730118274689</v>
       </c>
       <c r="W93" t="n">
-        <v>0.0192913431674242</v>
+        <v>0.01363356225192547</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5141270160675049</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.3991851806640625</v>
       </c>
       <c r="W94" t="n">
-        <v>0.003782002255320549</v>
+        <v>0.01321162562817335</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.516279935836792</v>
       </c>
       <c r="V95" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.4977596700191498</v>
       </c>
       <c r="W95" t="n">
-        <v>0.2109693437814713</v>
+        <v>0.0003430002543609589</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5161271095275879</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.5218150615692139</v>
       </c>
       <c r="W96" t="n">
-        <v>0.0001210900009027682</v>
+        <v>3.23528001899831e-05</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5615959167480469</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.4003596007823944</v>
       </c>
       <c r="W97" t="n">
-        <v>0.0002133003872586414</v>
+        <v>0.02599714882671833</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5209190845489502</v>
       </c>
       <c r="V98" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.8720306754112244</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0201678816229105</v>
+        <v>0.1232793480157852</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5193579196929932</v>
       </c>
       <c r="V99" t="n">
-        <v>0.405481219291687</v>
+        <v>0.52288419008255</v>
       </c>
       <c r="W99" t="n">
-        <v>0.01296790316700935</v>
+        <v>1.243458245880902e-05</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5175590515136719</v>
       </c>
       <c r="V100" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.5217778086662292</v>
       </c>
       <c r="W100" t="n">
-        <v>0.009986259043216705</v>
+        <v>1.779791273293085e-05</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5158560276031494</v>
       </c>
       <c r="V101" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.5204201340675354</v>
       </c>
       <c r="W101" t="n">
-        <v>0.01904701441526413</v>
+        <v>2.083106846839655e-05</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3982889652252197</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.5070835947990417</v>
       </c>
       <c r="W102" t="n">
-        <v>0.03708367422223091</v>
+        <v>0.01183627173304558</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4413759708404541</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.5321742296218872</v>
       </c>
       <c r="W103" t="n">
-        <v>0.007217449601739645</v>
+        <v>0.008244323544204235</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3934009075164795</v>
       </c>
       <c r="V104" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.8885578513145447</v>
       </c>
       <c r="W104" t="n">
-        <v>0.0002412046596873552</v>
+        <v>0.2451803982257843</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4091591835021973</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.5284533500671387</v>
       </c>
       <c r="W105" t="n">
-        <v>0.002985457424074411</v>
+        <v>0.01423109788447618</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3874640464782715</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.5307314395904541</v>
       </c>
       <c r="W106" t="n">
-        <v>0.005830883979797363</v>
+        <v>0.02052554674446583</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3893029689788818</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.5227187275886536</v>
       </c>
       <c r="W107" t="n">
-        <v>0.01838457211852074</v>
+        <v>0.01779976487159729</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3887360095977783</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.8932434320449829</v>
       </c>
       <c r="W108" t="n">
-        <v>0.04241899773478508</v>
+        <v>0.254527747631073</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.4438889026641846</v>
       </c>
       <c r="V109" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.5602915287017822</v>
       </c>
       <c r="W109" t="n">
-        <v>0.04407345876097679</v>
+        <v>0.01354957092553377</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3971397876739502</v>
       </c>
       <c r="V110" t="n">
-        <v>0.417652815580368</v>
+        <v>0.5215272307395935</v>
       </c>
       <c r="W110" t="n">
-        <v>0.0004207843157928437</v>
+        <v>0.0154722360894084</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3899040222167969</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.3992469608783722</v>
       </c>
       <c r="W111" t="n">
-        <v>0.06939627230167389</v>
+        <v>8.729050023248419e-05</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.3966200351715088</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.4009705483913422</v>
       </c>
       <c r="W112" t="n">
-        <v>0.008785989135503769</v>
+        <v>1.892696491267998e-05</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3995339870452881</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.3997577130794525</v>
       </c>
       <c r="W113" t="n">
-        <v>0.008302084170281887</v>
+        <v>5.00533374747647e-08</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3975660800933838</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.3991685509681702</v>
       </c>
       <c r="W114" t="n">
-        <v>0.03194243460893631</v>
+        <v>2.567912815720774e-06</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.4135298728942871</v>
       </c>
       <c r="V115" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.4004688560962677</v>
       </c>
       <c r="W115" t="n">
-        <v>0.008385133929550648</v>
+        <v>0.0001705901668174192</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.400393009185791</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.4004645645618439</v>
       </c>
       <c r="W116" t="n">
-        <v>0.01092680264264345</v>
+        <v>5.120171842065702e-09</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3930392265319824</v>
       </c>
       <c r="V117" t="n">
-        <v>0.371780127286911</v>
+        <v>0.5179486870765686</v>
       </c>
       <c r="W117" t="n">
-        <v>0.0004519493086263537</v>
+        <v>0.01560237351804972</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4020788669586182</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.5218534469604492</v>
       </c>
       <c r="W118" t="n">
-        <v>0.003533019917085767</v>
+        <v>0.01434595044702291</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3890740871429443</v>
       </c>
       <c r="V119" t="n">
-        <v>0.417630136013031</v>
+        <v>0.4022762477397919</v>
       </c>
       <c r="W119" t="n">
-        <v>0.0008154479437507689</v>
+        <v>0.0001742970489431173</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4093010425567627</v>
       </c>
       <c r="V120" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.8702582716941833</v>
       </c>
       <c r="W120" t="n">
-        <v>0.3206899166107178</v>
+        <v>0.2124815732240677</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3888108730316162</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.4024960398674011</v>
       </c>
       <c r="W121" t="n">
-        <v>0.03752218931913376</v>
+        <v>0.0001872837892733514</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8898811340332031</v>
       </c>
       <c r="V122" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.4021167457103729</v>
       </c>
       <c r="W122" t="n">
-        <v>0.007570319343358278</v>
+        <v>0.2379141002893448</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.930156946182251</v>
       </c>
       <c r="V123" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.8697337508201599</v>
       </c>
       <c r="W123" t="n">
-        <v>0.3356951773166656</v>
+        <v>0.003650962607935071</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8893911838531494</v>
       </c>
       <c r="V124" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.8779298663139343</v>
       </c>
       <c r="W124" t="n">
-        <v>0.2901303172111511</v>
+        <v>0.0001313617976848036</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.9170880317687988</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.8675738573074341</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1825556308031082</v>
+        <v>0.00245165335945785</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8810000419616699</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.4004329144954681</v>
       </c>
       <c r="W126" t="n">
-        <v>0.214678943157196</v>
+        <v>0.2309447675943375</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.872974157333374</v>
       </c>
       <c r="V127" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.5323725938796997</v>
       </c>
       <c r="W127" t="n">
-        <v>0.04764780402183533</v>
+        <v>0.116009421646595</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8642890453338623</v>
       </c>
       <c r="V128" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.4003423154354095</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1995038688182831</v>
+        <v>0.2152465730905533</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9240682125091553</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.3999550938606262</v>
       </c>
       <c r="W129" t="n">
-        <v>0.2565982341766357</v>
+        <v>0.274694561958313</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8903520107269287</v>
       </c>
       <c r="V130" t="n">
-        <v>0.653493344783783</v>
+        <v>0.5155261158943176</v>
       </c>
       <c r="W130" t="n">
-        <v>0.05610202625393867</v>
+        <v>0.1404944509267807</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8618810176849365</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.5240219235420227</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1139054298400879</v>
+        <v>0.1141487658023834</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8741660118103027</v>
       </c>
       <c r="V132" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.4021911323070526</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1469767689704895</v>
+        <v>0.2227602899074554</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9340801239013672</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.5204121470451355</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1676840037107468</v>
+        <v>0.1711211949586868</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8645470142364502</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.4021575748920441</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1996965855360031</v>
+        <v>0.2138039916753769</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8696110248565674</v>
       </c>
       <c r="V135" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.5222574472427368</v>
       </c>
       <c r="W135" t="n">
-        <v>0.02902828715741634</v>
+        <v>0.120654508471489</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.863724946975708</v>
       </c>
       <c r="V136" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.8668258190155029</v>
       </c>
       <c r="W136" t="n">
-        <v>0.0007066345424391329</v>
+        <v>9.615407179808244e-06</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9185371398925781</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.5149940252304077</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2089174687862396</v>
+        <v>0.1628470420837402</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8683569431304932</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.8752406239509583</v>
       </c>
       <c r="W138" t="n">
-        <v>0.08164272457361221</v>
+        <v>4.738506322610192e-05</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8689360618591309</v>
       </c>
       <c r="V139" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.8932589888572693</v>
       </c>
       <c r="W139" t="n">
-        <v>0.08572755008935928</v>
+        <v>0.0005916047957725823</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8626401424407959</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.8766885995864868</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1139316633343697</v>
+        <v>0.0001973591424757615</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.9528257846832275</v>
       </c>
       <c r="V141" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.8907958269119263</v>
       </c>
       <c r="W141" t="n">
-        <v>0.3615722358226776</v>
+        <v>0.003847715677693486</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5565669536590576</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.8863851428031921</v>
       </c>
       <c r="W142" t="n">
-        <v>0.004466218408197165</v>
+        <v>0.1087800413370132</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5212299823760986</v>
       </c>
       <c r="V143" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.5236735939979553</v>
       </c>
       <c r="W143" t="n">
-        <v>0.02905457466840744</v>
+        <v>5.971237897028914e-06</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5194931030273438</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.3991729319095612</v>
       </c>
       <c r="W144" t="n">
-        <v>0.003099138149991632</v>
+        <v>0.01447694376111031</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5185449123382568</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.4004407227039337</v>
       </c>
       <c r="W145" t="n">
-        <v>0.000177647132659331</v>
+        <v>0.01394859980791807</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5757219791412354</v>
       </c>
       <c r="V146" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.3991671800613403</v>
       </c>
       <c r="W146" t="n">
-        <v>0.03886513411998749</v>
+        <v>0.03117159754037857</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5377781391143799</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.3998939692974091</v>
       </c>
       <c r="W147" t="n">
-        <v>0.02404395304620266</v>
+        <v>0.01901204511523247</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5481269359588623</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.8781175017356873</v>
       </c>
       <c r="W148" t="n">
-        <v>0.01702157594263554</v>
+        <v>0.1088937744498253</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5177240371704102</v>
       </c>
       <c r="V149" t="n">
-        <v>0.975210964679718</v>
+        <v>0.5259134769439697</v>
       </c>
       <c r="W149" t="n">
-        <v>0.2092942893505096</v>
+        <v>6.706692511215806e-05</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5192160606384277</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.4022793769836426</v>
       </c>
       <c r="W150" t="n">
-        <v>0.0008716841111890972</v>
+        <v>0.01367418840527534</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5181510448455811</v>
       </c>
       <c r="V151" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.8559018969535828</v>
       </c>
       <c r="W151" t="n">
-        <v>0.0181826651096344</v>
+        <v>0.1140756383538246</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5178511142730713</v>
       </c>
       <c r="V152" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.865201473236084</v>
       </c>
       <c r="W152" t="n">
-        <v>0.003405643859878182</v>
+        <v>0.1206522732973099</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5174961090087891</v>
       </c>
       <c r="V153" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.8758643269538879</v>
       </c>
       <c r="W153" t="n">
-        <v>6.841303547844291e-05</v>
+        <v>0.1284277737140656</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5161020755767822</v>
       </c>
       <c r="V154" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.4001893699169159</v>
       </c>
       <c r="W154" t="n">
-        <v>0.0209757424890995</v>
+        <v>0.01343575492501259</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5209999084472656</v>
       </c>
       <c r="V155" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.4025319814682007</v>
       </c>
       <c r="W155" t="n">
-        <v>0.2066425532102585</v>
+        <v>0.01403464935719967</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5183041095733643</v>
       </c>
       <c r="V156" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.526034951210022</v>
       </c>
       <c r="W156" t="n">
-        <v>0.03273105621337891</v>
+        <v>5.976591273793019e-05</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5722038745880127</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.4003202617168427</v>
       </c>
       <c r="W157" t="n">
-        <v>0.00224575400352478</v>
+        <v>0.02954397723078728</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5207531452178955</v>
       </c>
       <c r="V158" t="n">
-        <v>0.417663037776947</v>
+        <v>0.5182069540023804</v>
       </c>
       <c r="W158" t="n">
-        <v>0.01062757056206465</v>
+        <v>6.483089691755595e-06</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5183389186859131</v>
       </c>
       <c r="V159" t="n">
-        <v>0.490370512008667</v>
+        <v>0.8799803853034973</v>
       </c>
       <c r="W159" t="n">
-        <v>0.0007822318002581596</v>
+        <v>0.1307845562696457</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5177900791168213</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.4000358283519745</v>
       </c>
       <c r="W160" t="n">
-        <v>0.0001820466131903231</v>
+        <v>0.01386606320738792</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5204329490661621</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.5266873836517334</v>
       </c>
       <c r="W161" t="n">
-        <v>0.002625241177156568</v>
+        <v>3.911795283784159e-05</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3949730396270752</v>
       </c>
       <c r="V162" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.3999616205692291</v>
       </c>
       <c r="W162" t="n">
-        <v>0.3371005952358246</v>
+        <v>2.488593963789754e-05</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3918559551239014</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.5431329011917114</v>
       </c>
       <c r="W163" t="n">
-        <v>0.009785128757357597</v>
+        <v>0.02288471348583698</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3929159641265869</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.8695661425590515</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0006106606451794505</v>
+        <v>0.2271953970193863</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3946950435638428</v>
       </c>
       <c r="V165" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.3991490006446838</v>
       </c>
       <c r="W165" t="n">
-        <v>0.08503997325897217</v>
+        <v>1.983773290703539e-05</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3915760517120361</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.4009934365749359</v>
       </c>
       <c r="W166" t="n">
-        <v>0.06765266507863998</v>
+        <v>8.868713484844193e-05</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3924260139465332</v>
       </c>
       <c r="V167" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.5146953463554382</v>
       </c>
       <c r="W167" t="n">
-        <v>0.0006312684854492545</v>
+        <v>0.01494978927075863</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3906009197235107</v>
       </c>
       <c r="V168" t="n">
-        <v>0.699232816696167</v>
+        <v>0.5228841304779053</v>
       </c>
       <c r="W168" t="n">
-        <v>0.09525364637374878</v>
+        <v>0.01749884709715843</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4150099754333496</v>
       </c>
       <c r="V169" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.5214694142341614</v>
       </c>
       <c r="W169" t="n">
-        <v>0.0771910697221756</v>
+        <v>0.01133361179381609</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3944389820098877</v>
       </c>
       <c r="V170" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.5095216631889343</v>
       </c>
       <c r="W170" t="n">
-        <v>0.3377130925655365</v>
+        <v>0.0132440235465765</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3917441368103027</v>
       </c>
       <c r="V171" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.5136608481407166</v>
       </c>
       <c r="W171" t="n">
-        <v>0.0001505873660789803</v>
+        <v>0.01486368477344513</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3982717990875244</v>
       </c>
       <c r="V172" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.5135788321495056</v>
       </c>
       <c r="W172" t="n">
-        <v>0.06375067681074142</v>
+        <v>0.01329571194946766</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3944239616394043</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.5320250988006592</v>
       </c>
       <c r="W173" t="n">
-        <v>0.01220463402569294</v>
+        <v>0.01893407292664051</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3925468921661377</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.4026220440864563</v>
       </c>
       <c r="W174" t="n">
-        <v>0.009669414721429348</v>
+        <v>0.0001015086891129613</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4468681812286377</v>
       </c>
       <c r="V175" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.8805299997329712</v>
       </c>
       <c r="W175" t="n">
-        <v>0.005590646993368864</v>
+        <v>0.1880625784397125</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3943519592285156</v>
       </c>
       <c r="V176" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.4003715813159943</v>
       </c>
       <c r="W176" t="n">
-        <v>0.06757712364196777</v>
+        <v>3.623585143941455e-05</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4007530212402344</v>
       </c>
       <c r="V177" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.8878666758537292</v>
       </c>
       <c r="W177" t="n">
-        <v>0.002501109847798944</v>
+        <v>0.2372797131538391</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3922600746154785</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.4021929800510406</v>
       </c>
       <c r="W178" t="n">
-        <v>0.01756018213927746</v>
+        <v>9.866261098068208e-05</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3929181098937988</v>
       </c>
       <c r="V179" t="n">
-        <v>0.576347291469574</v>
+        <v>0.5065782070159912</v>
       </c>
       <c r="W179" t="n">
-        <v>0.03364626318216324</v>
+        <v>0.0129186175763607</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3919548988342285</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.4010326266288757</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0006597014726139605</v>
+        <v>8.240513852797449e-05</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.5371260643005371</v>
       </c>
       <c r="V181" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.402251660823822</v>
       </c>
       <c r="W181" t="n">
-        <v>0.02520900033414364</v>
+        <v>0.01819110475480556</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8831219673156738</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.5180670619010925</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1760905236005783</v>
+        <v>0.1332650780677795</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9107179641723633</v>
       </c>
       <c r="V183" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.5655302405357361</v>
       </c>
       <c r="W183" t="n">
-        <v>0.3135743141174316</v>
+        <v>0.1191545650362968</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8851139545440674</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.4022793471813202</v>
       </c>
       <c r="W184" t="n">
-        <v>0.2185307592153549</v>
+        <v>0.2331292629241943</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.9381999969482422</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.8842123746871948</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1883049011230469</v>
+        <v>0.002914663404226303</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8697528839111328</v>
       </c>
       <c r="V186" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.4003600776195526</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2732323706150055</v>
+        <v>0.220329612493515</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8741109371185303</v>
       </c>
       <c r="V187" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.5198078155517578</v>
       </c>
       <c r="W187" t="n">
-        <v>0.08509842306375504</v>
+        <v>0.1255307048559189</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8674931526184082</v>
       </c>
       <c r="V188" t="n">
-        <v>0.417653352022171</v>
+        <v>0.3997829854488373</v>
       </c>
       <c r="W188" t="n">
-        <v>0.2023558467626572</v>
+        <v>0.2187528014183044</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.9247879981994629</v>
       </c>
       <c r="V189" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.8666433691978455</v>
       </c>
       <c r="W189" t="n">
-        <v>0.01480322796851397</v>
+        <v>0.003380797803401947</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.9001109600067139</v>
       </c>
       <c r="V190" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.4009799063205719</v>
       </c>
       <c r="W190" t="n">
-        <v>0.03681328520178795</v>
+        <v>0.2491318136453629</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8835029602050781</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.8903566598892212</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1288823485374451</v>
+        <v>4.697320036939345e-05</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8653068542480469</v>
       </c>
       <c r="V192" t="n">
-        <v>0.653571605682373</v>
+        <v>0.3991579413414001</v>
       </c>
       <c r="W192" t="n">
-        <v>0.04483181610703468</v>
+        <v>0.2172948122024536</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9404909610748291</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.8692814707756042</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2020885050296783</v>
+        <v>0.005070791579782963</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8699789047241211</v>
       </c>
       <c r="V194" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.4009789526462555</v>
       </c>
       <c r="W194" t="n">
-        <v>0.01118658483028412</v>
+        <v>0.2199609577655792</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8793909549713135</v>
       </c>
       <c r="V195" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.4000503718852997</v>
       </c>
       <c r="W195" t="n">
-        <v>0.2834065556526184</v>
+        <v>0.2297673970460892</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8919639587402344</v>
       </c>
       <c r="V196" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.5064383745193481</v>
       </c>
       <c r="W196" t="n">
-        <v>0.2704161107540131</v>
+        <v>0.1486299782991409</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9183640480041504</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.8873468637466431</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1829729825258255</v>
+        <v>0.0009620657074265182</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8713431358337402</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.5211621522903442</v>
       </c>
       <c r="W198" t="n">
-        <v>0.08708508312702179</v>
+        <v>0.1226267218589783</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8719580173492432</v>
       </c>
       <c r="V199" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.3991678059101105</v>
       </c>
       <c r="W199" t="n">
-        <v>0.2716259062290192</v>
+        <v>0.2235305905342102</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8627541065216064</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.5141952633857727</v>
       </c>
       <c r="W200" t="n">
-        <v>0.04435086250305176</v>
+        <v>0.1214932650327682</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9472179412841797</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.4003378450870514</v>
       </c>
       <c r="W201" t="n">
-        <v>0.137653112411499</v>
+        <v>0.2990778684616089</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5189359188079834</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.8905026316642761</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01026261411607265</v>
+        <v>0.1380618214607239</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5181171894073486</v>
       </c>
       <c r="V203" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.8730841279029846</v>
       </c>
       <c r="W203" t="n">
-        <v>0.03047823160886765</v>
+        <v>0.1260015219449997</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5348649024963379</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.3993547260761261</v>
       </c>
       <c r="W204" t="n">
-        <v>0.003218986326828599</v>
+        <v>0.01836300827562809</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5208451747894287</v>
       </c>
       <c r="V205" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.5214051008224487</v>
       </c>
       <c r="W205" t="n">
-        <v>0.01068280823528767</v>
+        <v>3.135171482426813e-07</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5730059146881104</v>
       </c>
       <c r="V206" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.5205175280570984</v>
       </c>
       <c r="W206" t="n">
-        <v>0.01593097299337387</v>
+        <v>0.002755030756816268</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5210928916931152</v>
       </c>
       <c r="V207" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.8652927875518799</v>
       </c>
       <c r="W207" t="n">
-        <v>0.07802712172269821</v>
+        <v>0.1184735670685768</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5159530639648438</v>
       </c>
       <c r="V208" t="n">
-        <v>0.838257908821106</v>
+        <v>0.4003646671772003</v>
       </c>
       <c r="W208" t="n">
-        <v>0.103880412876606</v>
+        <v>0.01336067728698254</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5145530700683594</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.8749207854270935</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0005626254715025425</v>
+        <v>0.1298648864030838</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5194931030273438</v>
       </c>
       <c r="V210" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.5144025683403015</v>
       </c>
       <c r="W210" t="n">
-        <v>0.0284718219190836</v>
+        <v>2.59135431406321e-05</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5819170475006104</v>
       </c>
       <c r="V211" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.3991660475730896</v>
       </c>
       <c r="W211" t="n">
-        <v>0.05343016982078552</v>
+        <v>0.03339792788028717</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5236279964447021</v>
       </c>
       <c r="V212" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.8705934882164001</v>
       </c>
       <c r="W212" t="n">
-        <v>0.03083374537527561</v>
+        <v>0.1203850507736206</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5228419303894043</v>
       </c>
       <c r="V213" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.8777216076850891</v>
       </c>
       <c r="W213" t="n">
-        <v>0.03431203588843346</v>
+        <v>0.1259395927190781</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5223019123077393</v>
       </c>
       <c r="V214" t="n">
-        <v>0.490907609462738</v>
+        <v>0.8746912479400635</v>
       </c>
       <c r="W214" t="n">
-        <v>0.0009856022661551833</v>
+        <v>0.1241782456636429</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5232009887695312</v>
       </c>
       <c r="V215" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.5235008001327515</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01719200797379017</v>
+        <v>8.988685351596359e-08</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5397770404815674</v>
       </c>
       <c r="V216" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.8772080540657043</v>
       </c>
       <c r="W216" t="n">
-        <v>0.06854484975337982</v>
+        <v>0.1138596907258034</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5219919681549072</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.400336354970932</v>
       </c>
       <c r="W217" t="n">
-        <v>0.0003035496338270605</v>
+        <v>0.01480008848011494</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.520226001739502</v>
       </c>
       <c r="V218" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.4021036922931671</v>
       </c>
       <c r="W218" t="n">
-        <v>0.09843728691339493</v>
+        <v>0.013952880166471</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.524238109588623</v>
       </c>
       <c r="V219" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.52130126953125</v>
       </c>
       <c r="W219" t="n">
-        <v>0.01664996892213821</v>
+        <v>8.625029295217246e-06</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5232629776000977</v>
       </c>
       <c r="V220" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.5222322940826416</v>
       </c>
       <c r="W220" t="n">
-        <v>0.02974845096468925</v>
+        <v>1.062308456312167e-06</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.522845983505249</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.8736635446548462</v>
       </c>
       <c r="W221" t="n">
-        <v>0.01696898601949215</v>
+        <v>0.1230729594826698</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.4495029449462891</v>
       </c>
       <c r="V222" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.8826703429222107</v>
       </c>
       <c r="W222" t="n">
-        <v>0.04161920771002769</v>
+        <v>0.1876339912414551</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.391995906829834</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.5163100957870483</v>
       </c>
       <c r="W223" t="n">
-        <v>0.005158303771167994</v>
+        <v>0.01545401755720377</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3926150798797607</v>
       </c>
       <c r="V224" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.3991792500019073</v>
       </c>
       <c r="W224" t="n">
-        <v>0.001690910197794437</v>
+        <v>4.308833013055846e-05</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3920629024505615</v>
       </c>
       <c r="V225" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.3999052345752716</v>
       </c>
       <c r="W225" t="n">
-        <v>0.01751611940562725</v>
+        <v>6.150217086542398e-05</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3935379981994629</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.8686738014221191</v>
       </c>
       <c r="W226" t="n">
-        <v>0.03979452699422836</v>
+        <v>0.2257540374994278</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3970820903778076</v>
       </c>
       <c r="V227" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.8621985912322998</v>
       </c>
       <c r="W227" t="n">
-        <v>0.1945737302303314</v>
+        <v>0.2163333594799042</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4223220348358154</v>
       </c>
       <c r="V228" t="n">
-        <v>0.802417516708374</v>
+        <v>0.8686527609825134</v>
       </c>
       <c r="W228" t="n">
-        <v>0.1444725692272186</v>
+        <v>0.1992111206054688</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3967490196228027</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.3991651237010956</v>
       </c>
       <c r="W229" t="n">
-        <v>0.08759105950593948</v>
+        <v>5.837559001520276e-06</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.393441915512085</v>
       </c>
       <c r="V230" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.5174658894538879</v>
       </c>
       <c r="W230" t="n">
-        <v>0.0004596377839334309</v>
+        <v>0.01538194622844458</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3924939632415771</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.8740357160568237</v>
       </c>
       <c r="W231" t="n">
-        <v>0.01234651170670986</v>
+        <v>0.2318824529647827</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4037880897521973</v>
       </c>
       <c r="V232" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.5212943553924561</v>
       </c>
       <c r="W232" t="n">
-        <v>0.1606793403625488</v>
+        <v>0.01380772236734629</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3945779800415039</v>
       </c>
       <c r="V233" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.8585518598556519</v>
       </c>
       <c r="W233" t="n">
-        <v>0.3376181721687317</v>
+        <v>0.2152717560529709</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3974549770355225</v>
       </c>
       <c r="V234" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.3991853296756744</v>
       </c>
       <c r="W234" t="n">
-        <v>0.06507036089897156</v>
+        <v>2.994120222865604e-06</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3953168392181396</v>
       </c>
       <c r="V235" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.5276117920875549</v>
       </c>
       <c r="W235" t="n">
-        <v>0.1965368241071701</v>
+        <v>0.01750195398926735</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3963639736175537</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.4010260105133057</v>
       </c>
       <c r="W236" t="n">
-        <v>0.06580142676830292</v>
+        <v>2.173458778997883e-05</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3934199810028076</v>
       </c>
       <c r="V237" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.3991544246673584</v>
       </c>
       <c r="W237" t="n">
-        <v>0.3384591937065125</v>
+        <v>3.288384323241189e-05</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3889632225036621</v>
       </c>
       <c r="V238" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.8753131031990051</v>
       </c>
       <c r="W238" t="n">
-        <v>0.09615403413772583</v>
+        <v>0.2365362048149109</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3925678730010986</v>
       </c>
       <c r="V239" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.8782675862312317</v>
       </c>
       <c r="W239" t="n">
-        <v>0.1664067059755325</v>
+        <v>0.2359042167663574</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3856990337371826</v>
       </c>
       <c r="V240" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.8822245597839355</v>
       </c>
       <c r="W240" t="n">
-        <v>0.000184954100404866</v>
+        <v>0.2465375959873199</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4038019180297852</v>
       </c>
       <c r="V241" t="n">
-        <v>0.490833193063736</v>
+        <v>0.545343816280365</v>
       </c>
       <c r="W241" t="n">
-        <v>0.007574442774057388</v>
+        <v>0.02003410831093788</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8976230621337891</v>
       </c>
       <c r="V242" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.5169793367385864</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2773166000843048</v>
+        <v>0.1448896527290344</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>1.057010889053345</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.4010064899921417</v>
       </c>
       <c r="W243" t="n">
-        <v>0.3210276961326599</v>
+        <v>0.4303418099880219</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>1.028808116912842</v>
       </c>
       <c r="V244" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.8699868321418762</v>
       </c>
       <c r="W244" t="n">
-        <v>0.4230901598930359</v>
+        <v>0.02522420138120651</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.9378058910369873</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.8729389309883118</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1877289712429047</v>
+        <v>0.004207722377032042</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8718359470367432</v>
       </c>
       <c r="V246" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.8871698975563049</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1455007195472717</v>
+        <v>0.0002351300354348496</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8758888244628906</v>
       </c>
       <c r="V247" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.4000422060489655</v>
       </c>
       <c r="W247" t="n">
-        <v>0.005692541133612394</v>
+        <v>0.2264299988746643</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.904900074005127</v>
       </c>
       <c r="V248" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.8783465027809143</v>
       </c>
       <c r="W248" t="n">
-        <v>0.04052827507257462</v>
+        <v>0.0007050921558402479</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8863489627838135</v>
       </c>
       <c r="V249" t="n">
-        <v>0.975181519985199</v>
+        <v>0.8728949427604675</v>
       </c>
       <c r="W249" t="n">
-        <v>0.007891222834587097</v>
+        <v>0.0001810106477933004</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8721060752868652</v>
       </c>
       <c r="V250" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.5141079425811768</v>
       </c>
       <c r="W250" t="n">
-        <v>0.2499742805957794</v>
+        <v>0.1281626671552658</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8925979137420654</v>
       </c>
       <c r="V251" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.8872361779212952</v>
       </c>
       <c r="W251" t="n">
-        <v>0.03572467714548111</v>
+        <v>2.874821075238287e-05</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9335379600524902</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.3992597162723541</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1276080459356308</v>
+        <v>0.2854532599449158</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8832290172576904</v>
       </c>
       <c r="V253" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.5666731595993042</v>
       </c>
       <c r="W253" t="n">
-        <v>0.2874115407466888</v>
+        <v>0.1002076119184494</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8852918148040771</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.399233341217041</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1455274671316147</v>
+        <v>0.2362528443336487</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8766140937805176</v>
       </c>
       <c r="V255" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.5160115957260132</v>
       </c>
       <c r="W255" t="n">
-        <v>0.0498337633907795</v>
+        <v>0.1300341635942459</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9333188533782959</v>
       </c>
       <c r="V256" t="n">
-        <v>0.654336154460907</v>
+        <v>0.8662410378456116</v>
       </c>
       <c r="W256" t="n">
-        <v>0.07783134281635284</v>
+        <v>0.004499433562159538</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8862361907958984</v>
       </c>
       <c r="V257" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.524158239364624</v>
       </c>
       <c r="W257" t="n">
-        <v>0.002719884738326073</v>
+        <v>0.1311004459857941</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8687598705291748</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.8634840846061707</v>
       </c>
       <c r="W258" t="n">
-        <v>0.04632646217942238</v>
+        <v>2.783391755656339e-05</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8739669322967529</v>
       </c>
       <c r="V259" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.5188115239143372</v>
       </c>
       <c r="W259" t="n">
-        <v>0.001582525903359056</v>
+        <v>0.1261353641748428</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9231131076812744</v>
       </c>
       <c r="V260" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.3991608619689941</v>
       </c>
       <c r="W260" t="n">
-        <v>0.3040146231651306</v>
+        <v>0.2745259702205658</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8724839687347412</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.5036845207214355</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1349741667509079</v>
+        <v>0.1360130310058594</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5275061130523682</v>
       </c>
       <c r="V262" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.8814700245857239</v>
       </c>
       <c r="W262" t="n">
-        <v>0.07554144412279129</v>
+        <v>0.1252904534339905</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.526745080947876</v>
       </c>
       <c r="V263" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.4004478752613068</v>
       </c>
       <c r="W263" t="n">
-        <v>0.030588423833251</v>
+        <v>0.01595098339021206</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5245459079742432</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.3999478816986084</v>
       </c>
       <c r="W264" t="n">
-        <v>0.002649496542289853</v>
+        <v>0.0155246676877141</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5761501789093018</v>
       </c>
       <c r="V265" t="n">
-        <v>0.652911365032196</v>
+        <v>0.5273765325546265</v>
       </c>
       <c r="W265" t="n">
-        <v>0.005892279557883739</v>
+        <v>0.002378868637606502</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5269138813018799</v>
       </c>
       <c r="V266" t="n">
-        <v>0.372467577457428</v>
+        <v>0.5195847749710083</v>
       </c>
       <c r="W266" t="n">
-        <v>0.02385366149246693</v>
+        <v>5.371580118662678e-05</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.523237943649292</v>
       </c>
       <c r="V267" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.4004702270030975</v>
       </c>
       <c r="W267" t="n">
-        <v>0.02943162247538567</v>
+        <v>0.01507191266864538</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5270938873291016</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.8750002980232239</v>
       </c>
       <c r="W268" t="n">
-        <v>0.003033346496522427</v>
+        <v>0.1210388690233231</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5244748592376709</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.5240578055381775</v>
       </c>
       <c r="W269" t="n">
-        <v>0.02829702012240887</v>
+        <v>1.739337847084244e-07</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5638120174407959</v>
       </c>
       <c r="V270" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.4009957313537598</v>
       </c>
       <c r="W270" t="n">
-        <v>0.04539523273706436</v>
+        <v>0.02650914341211319</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5228500366210938</v>
       </c>
       <c r="V271" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.3991771936416626</v>
       </c>
       <c r="W271" t="n">
-        <v>0.204632893204689</v>
+        <v>0.01529497187584639</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5285820960998535</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.5085926055908203</v>
       </c>
       <c r="W272" t="n">
-        <v>0.01563957706093788</v>
+        <v>0.0003995797305833548</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5226919651031494</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.8667207956314087</v>
       </c>
       <c r="W273" t="n">
-        <v>0.004179221577942371</v>
+        <v>0.1183558329939842</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5441920757293701</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.5281445384025574</v>
       </c>
       <c r="W274" t="n">
-        <v>0.001527462620288134</v>
+        <v>0.0002575234684627503</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5239048004150391</v>
       </c>
       <c r="V275" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.3999013304710388</v>
       </c>
       <c r="W275" t="n">
-        <v>0.07692643254995346</v>
+        <v>0.0153768602758646</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5251021385192871</v>
       </c>
       <c r="V276" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.8749882578849792</v>
       </c>
       <c r="W276" t="n">
-        <v>0.01659275032579899</v>
+        <v>0.1224202960729599</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5269849300384521</v>
       </c>
       <c r="V277" t="n">
-        <v>0.417632520198822</v>
+        <v>0.528471827507019</v>
       </c>
       <c r="W277" t="n">
-        <v>0.01195794995874166</v>
+        <v>2.210864067819784e-06</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5230939388275146</v>
       </c>
       <c r="V278" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.8757066130638123</v>
       </c>
       <c r="W278" t="n">
-        <v>0.07922700792551041</v>
+        <v>0.1243356987833977</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5250399112701416</v>
       </c>
       <c r="V279" t="n">
-        <v>0.524641752243042</v>
+        <v>0.8746498227119446</v>
       </c>
       <c r="W279" t="n">
-        <v>1.585306108609075e-07</v>
+        <v>0.1222270876169205</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5223870277404785</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.8824931979179382</v>
       </c>
       <c r="W280" t="n">
-        <v>0.004660414066165686</v>
+        <v>0.1296764612197876</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5736370086669922</v>
       </c>
       <c r="V281" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.5276957154273987</v>
       </c>
       <c r="W281" t="n">
-        <v>0.04967423528432846</v>
+        <v>0.002110602334141731</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4076831340789795</v>
       </c>
       <c r="V282" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.5182522535324097</v>
       </c>
       <c r="W282" t="n">
-        <v>9.720155503600836e-05</v>
+        <v>0.01222553011029959</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3997468948364258</v>
       </c>
       <c r="V283" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.5287814140319824</v>
       </c>
       <c r="W283" t="n">
-        <v>0.1883370727300644</v>
+        <v>0.01664990745484829</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.399083137512207</v>
       </c>
       <c r="V284" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.4000385403633118</v>
       </c>
       <c r="W284" t="n">
-        <v>0.3325264155864716</v>
+        <v>9.127946327680547e-07</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3986120223999023</v>
       </c>
       <c r="V285" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.5196052193641663</v>
       </c>
       <c r="W285" t="n">
-        <v>0.0957941859960556</v>
+        <v>0.0146393533796072</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.400886058807373</v>
       </c>
       <c r="V286" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.4010431170463562</v>
       </c>
       <c r="W286" t="n">
-        <v>0.1596653163433075</v>
+        <v>2.466729043248961e-08</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.462446928024292</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.566575825214386</v>
       </c>
       <c r="W287" t="n">
-        <v>0.00401419959962368</v>
+        <v>0.01084282714873552</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3990721702575684</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.8761914968490601</v>
       </c>
       <c r="W288" t="n">
-        <v>0.008357517421245575</v>
+        <v>0.2276428490877151</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.3987228870391846</v>
       </c>
       <c r="V289" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.8821223378181458</v>
       </c>
       <c r="W289" t="n">
-        <v>0.0007183697307482362</v>
+        <v>0.2336750328540802</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3932399749755859</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.5213711261749268</v>
       </c>
       <c r="W290" t="n">
-        <v>0.01735297031700611</v>
+        <v>0.01641759276390076</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3989100456237793</v>
       </c>
       <c r="V291" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.4003275334835052</v>
       </c>
       <c r="W291" t="n">
-        <v>0.332488477230072</v>
+        <v>2.00927183868771e-06</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4036099910736084</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.8646993041038513</v>
       </c>
       <c r="W292" t="n">
-        <v>0.007517518941313028</v>
+        <v>0.212603360414505</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4224691390991211</v>
       </c>
       <c r="V293" t="n">
-        <v>0.35074183344841</v>
+        <v>0.526959240436554</v>
       </c>
       <c r="W293" t="n">
-        <v>0.005144806578755379</v>
+        <v>0.01091818138957024</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3974320888519287</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.8666364550590515</v>
       </c>
       <c r="W294" t="n">
-        <v>0.03742003440856934</v>
+        <v>0.220152735710144</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3953700065612793</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.874359130859375</v>
       </c>
       <c r="W295" t="n">
-        <v>0.004686566069722176</v>
+        <v>0.2294305860996246</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3964071273803711</v>
       </c>
       <c r="V296" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.868658721446991</v>
       </c>
       <c r="W296" t="n">
-        <v>0.002084929961711168</v>
+        <v>0.2230215668678284</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4131231307983398</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.8828586935997009</v>
       </c>
       <c r="W297" t="n">
-        <v>0.006019706837832928</v>
+        <v>0.2206514924764633</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.39910888671875</v>
       </c>
       <c r="V298" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.5214979648590088</v>
       </c>
       <c r="W298" t="n">
-        <v>0.03137125074863434</v>
+        <v>0.01497908681631088</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3992679119110107</v>
       </c>
       <c r="V299" t="n">
-        <v>0.490329772233963</v>
+        <v>0.5219004154205322</v>
       </c>
       <c r="W299" t="n">
-        <v>0.008292262442409992</v>
+        <v>0.01503873057663441</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3987858295440674</v>
       </c>
       <c r="V300" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.8865053057670593</v>
       </c>
       <c r="W300" t="n">
-        <v>0.06468125432729721</v>
+        <v>0.2378702908754349</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3993129730224609</v>
       </c>
       <c r="V301" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.4010615944862366</v>
       </c>
       <c r="W301" t="n">
-        <v>0.1852167695760727</v>
+        <v>3.057677076867549e-06</v>
       </c>
     </row>
     <row r="302" spans="1:23">
